--- a/evaluation/records_noisy2denoised.xlsx
+++ b/evaluation/records_noisy2denoised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4A2855-8569-4B74-883C-188C17D1899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51239F6-6B73-4124-8C30-BC8606D00974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="N2V" sheetId="3" r:id="rId4"/>
     <sheet name="Nb2Nb" sheetId="5" r:id="rId5"/>
     <sheet name="ZS-N2N" sheetId="6" r:id="rId6"/>
-    <sheet name="3D Nb2Nb" sheetId="7" r:id="rId7"/>
+    <sheet name="Nb2Nb-exten" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="231">
   <si>
     <t>CPU</t>
   </si>
@@ -743,6 +744,10 @@
   </si>
   <si>
     <t>ealystop at epoch 21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1704 slices</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +760,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -803,6 +808,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -926,62 +937,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1334,9 +1348,9 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1376,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="I10" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="I14" t="s">
         <v>24</v>
       </c>
@@ -1440,7 +1454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="I15" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +1462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="I16" t="s">
         <v>30</v>
       </c>
@@ -1456,7 +1470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1464,32 +1478,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1514,501 +1528,501 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="21">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="21">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21">
+      <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="21">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="21">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="21">
+      <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="21">
+      <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="21">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="21">
+      <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="21">
+      <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="21">
+      <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="21">
+      <c r="A12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="21">
+      <c r="A13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="21">
+      <c r="A14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" ht="21">
+      <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="21">
+      <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="21">
+      <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="21">
+      <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="21">
+      <c r="A19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="21">
+      <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2023,11 +2037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7FE47A-064E-4C8C-91CA-B1B9222EEBB4}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
@@ -2037,567 +2051,567 @@
     <col min="8" max="8" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" ht="20.25">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25">
+      <c r="A2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>37.188529051176097</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0.87860468622254395</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>20.617415339685898</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>27.781311102733799</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>3478</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" ht="20.25">
+      <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>38.567865137799103</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>0.89943954453264996</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>19.318458780413401</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>27.021698103898601</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>4213</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25">
+      <c r="A4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>38.7397316498216</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>0.90160056875544903</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>17.481966905761499</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>26.979348711661299</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>2996</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25">
+      <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>40.163727595948799</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>0.92250830922778804</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>14.8543341662734</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>29.1059404281478</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>2919</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25">
+      <c r="A6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>40.200984733896</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>0.92793933919636895</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>13.233305028174</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>31.374394534795101</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>2554</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25">
+      <c r="A7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>43.325703878489698</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>0.95556160528584899</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>10.873564794892401</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>32.160053533685797</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>3458</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25">
+      <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>44.693964932438703</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>0.96373598069284105</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>9.3823316604830307</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>35.206627976728797</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>5328</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25">
+      <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>46.546956756102098</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>0.97444879507888804</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>7.3220228945137897</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>42.692901425903003</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>2959</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25">
+      <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>49.416067437798901</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.98374311744381104</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>5.5134684382355701</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>53.895097678635999</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>4082</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25">
+      <c r="A11" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>37.2317849705166</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>0.88620960944275695</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>7.9630515704629898</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>26.467567767358599</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>5583</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25">
+      <c r="A12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>46.830578951028798</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>0.93292217987423598</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>14.8154791762353</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>74.053341281934905</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>5952</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25">
+      <c r="A13" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>48.0480831732525</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>0.92355120974287297</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>13.346919829054899</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>84.007239132571399</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>6624</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25">
+      <c r="A14" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>53.117147090434301</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>0.941521982323416</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>10.602083235891699</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>88.611355585760407</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>6812</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25">
+      <c r="A15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>54.466761210136298</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>0.95675035677794595</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>7.8577481043394002</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>92.238684182450399</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>7315</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25">
+      <c r="A16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>59.024202662281397</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>0.97167705203544796</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>5.9470246517521401</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>32.1315866861869</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>6557</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25">
+      <c r="A17" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>62.405919687757503</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>0.97881248499165496</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>4.4831228074763203</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>27.9071675512326</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>9317</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25">
+      <c r="A18" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>66.4539181092711</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>0.98719661491103206</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>3.0567661240202102</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>34.805503646162499</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>9258</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25">
+      <c r="A19" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>64.703304239376294</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>0.99072316945068595</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>2.2451538045934201</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>45.045707811331603</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>6056</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25">
+      <c r="A20" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>73.494198723666699</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>0.99465262004482502</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>1.2921141675887999</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>104.20225110479799</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2610,587 +2624,587 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B20" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9" style="20"/>
-    <col min="3" max="3" width="22" style="26" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="27" style="22" customWidth="1"/>
-    <col min="8" max="8" width="31" style="20" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="20"/>
+    <col min="1" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="22" style="27" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="27" style="23" customWidth="1"/>
+    <col min="8" max="8" width="31" style="21" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" ht="20.25">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.25">
+      <c r="A2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25">
+      <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.25">
+      <c r="A4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25">
+      <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.25">
+      <c r="A6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.25">
+      <c r="A7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.25">
+      <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.25">
+      <c r="A9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>71.261355752175007</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="25">
         <v>0.99990612880717999</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="25">
         <v>0.20456170305260399</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="25">
         <v>58.388631050727803</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>11833</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.25">
+      <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="25">
         <v>73.410279037801899</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <v>0.99991681042209901</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <v>0.205691267881775</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="25">
         <v>72.198415477909506</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>10253</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.25">
+      <c r="A11" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="25">
         <v>69.017758177915795</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="25">
         <v>0.99990022051126404</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="25">
         <v>0.28670435328967803</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="25">
         <v>151.08046044799201</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>11650</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="L11" s="20" t="s">
+      <c r="J11" s="22"/>
+      <c r="L11" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:12" ht="20.25">
+      <c r="A12" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="25">
         <v>73.053010043127003</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="25">
         <v>0.99995893692412596</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="25">
         <v>0.24595438759570201</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="25">
         <v>150.94897552922799</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>11033</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.25">
+      <c r="A13" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="25">
         <v>70.0864818321472</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="25">
         <v>0.99990301347556498</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="25">
         <v>0.306345996126765</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="25">
         <v>150.592626916081</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>13895</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.25">
+      <c r="A14" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="25">
         <v>65.045143517056502</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="25">
         <v>0.999946827195341</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="25">
         <v>9.7673917480278706E-5</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="25">
         <v>155.845</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>13331</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.25">
+      <c r="A15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>72.866218009841603</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="25">
         <v>0.99994369012752204</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <v>0.16201935649587501</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="25">
         <v>148.73352611712801</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>9583</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.25">
+      <c r="A16" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="26">
         <v>73.069458725139299</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="26">
         <v>0.99992596226554498</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="26">
         <v>0.18877050939045101</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="26">
         <v>34.809864451223497</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>13665</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25">
+      <c r="A17" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="26">
         <v>72.684363787667394</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>0.99992393364699494</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="26">
         <v>0.193462881245068</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="26">
         <v>28.259755688851801</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>8259</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25">
+      <c r="A18" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="26">
         <v>61.736953310268802</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="26">
         <v>0.99955766262807</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="26">
         <v>0.22372418248414699</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="26">
         <v>34.379446848052098</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>14221</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25">
+      <c r="A19" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="26">
         <v>70.801012945922807</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="26">
         <v>0.99992392224826099</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="26">
         <v>0.206715363085095</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="26">
         <v>44.043669171066398</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>13449</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25">
+      <c r="A20" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>73.725731398610606</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>0.99985502449521302</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>0.171883631484888</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>108.252398451197</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3207,7 +3221,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3216,14 +3230,349 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B521F164-EA15-4361-9E5C-55D20E33E938}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25">
+      <c r="A1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25">
+      <c r="A2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25">
+      <c r="A3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25">
+      <c r="A4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25">
+      <c r="A5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25">
+      <c r="A6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25">
+      <c r="A7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25">
+      <c r="A8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25">
+      <c r="A9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25">
+      <c r="A10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25">
+      <c r="A11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37.583822942775299</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.84661280764048596</v>
+      </c>
+      <c r="E11" s="1">
+        <v>18.8989078670274</v>
+      </c>
+      <c r="F11" s="1">
+        <v>98.886437651762506</v>
+      </c>
+      <c r="G11" s="7">
+        <v>68372</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25">
+      <c r="A12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="25">
+        <v>37.8762146742447</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.85542632251536599</v>
+      </c>
+      <c r="E12" s="25">
+        <v>18.1831856528297</v>
+      </c>
+      <c r="F12" s="25">
+        <v>99.351167774429797</v>
+      </c>
+      <c r="G12" s="8">
+        <v>72108</v>
+      </c>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25">
+      <c r="A13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="25">
+        <v>38.431856773010402</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.87015168879667704</v>
+      </c>
+      <c r="E13" s="25">
+        <v>16.912678663036701</v>
+      </c>
+      <c r="F13" s="25">
+        <v>100.592938934763</v>
+      </c>
+      <c r="G13" s="8">
+        <v>70775</v>
+      </c>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25">
+      <c r="A14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25">
+      <c r="A15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25">
+      <c r="A16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25">
+      <c r="A17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25">
+      <c r="A18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25">
+      <c r="A19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25">
+      <c r="A20" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="22"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3237,7 +3586,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evaluation/records_noisy2denoised.xlsx
+++ b/evaluation/records_noisy2denoised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51239F6-6B73-4124-8C30-BC8606D00974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B472A15C-B9DB-4881-A975-304A85AE590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3233,7 +3233,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3241,7 +3241,7 @@
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.625" customWidth="1"/>
     <col min="7" max="7" width="15.125" customWidth="1"/>
@@ -3481,11 +3481,21 @@
       <c r="B14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="8"/>
+      <c r="C14" s="25">
+        <v>39.022804699352498</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.885007221702376</v>
+      </c>
+      <c r="E14" s="25">
+        <v>15.494000552222101</v>
+      </c>
+      <c r="F14" s="25">
+        <v>101.222233247346</v>
+      </c>
+      <c r="G14" s="8">
+        <v>70123</v>
+      </c>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="20.25">
@@ -3495,11 +3505,21 @@
       <c r="B15" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="25">
+        <v>39.715382531450402</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.90017456195392098</v>
+      </c>
+      <c r="E15" s="25">
+        <v>13.903342055622399</v>
+      </c>
+      <c r="F15" s="25">
+        <v>102.081843298679</v>
+      </c>
+      <c r="G15" s="8">
+        <v>70092</v>
+      </c>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="20.25">
@@ -3509,11 +3529,21 @@
       <c r="B16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="26">
+        <v>40.687119497123298</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0.91841067557299905</v>
+      </c>
+      <c r="E16" s="26">
+        <v>11.9114204589227</v>
+      </c>
+      <c r="F16" s="26">
+        <v>102.974139493322</v>
+      </c>
+      <c r="G16" s="8">
+        <v>70599</v>
+      </c>
       <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="20.25">
@@ -3523,11 +3553,21 @@
       <c r="B17" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="26">
+        <v>41.293461216987701</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.92854181615569698</v>
+      </c>
+      <c r="E17" s="26">
+        <v>10.434213637374301</v>
+      </c>
+      <c r="F17" s="26">
+        <v>103.10796006149999</v>
+      </c>
+      <c r="G17" s="8">
+        <v>71256</v>
+      </c>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="20.25">
@@ -3537,11 +3577,21 @@
       <c r="B18" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="26">
+        <v>42.443506115731701</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.94438147939463002</v>
+      </c>
+      <c r="E18" s="26">
+        <v>8.3028107197023893</v>
+      </c>
+      <c r="F18" s="26">
+        <v>103.17051159042801</v>
+      </c>
+      <c r="G18" s="8">
+        <v>70332</v>
+      </c>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" ht="20.25">

--- a/evaluation/records_noisy2denoised.xlsx
+++ b/evaluation/records_noisy2denoised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B472A15C-B9DB-4881-A975-304A85AE590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3043C5E7-9930-424A-A8FD-36D03250044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3233,7 +3233,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3281,11 +3281,21 @@
       <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="25">
+        <v>40.249423032020097</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.91047633303022801</v>
+      </c>
+      <c r="E2" s="25">
+        <v>12.927733879070701</v>
+      </c>
+      <c r="F2" s="25">
+        <v>102.169432167053</v>
+      </c>
+      <c r="G2" s="8">
+        <v>72099</v>
+      </c>
       <c r="H2" s="22" t="s">
         <v>230</v>
       </c>
@@ -3297,11 +3307,21 @@
       <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="25">
+        <v>41.121494605117299</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.92570687130212004</v>
+      </c>
+      <c r="E3" s="25">
+        <v>11.646246200427401</v>
+      </c>
+      <c r="F3" s="25">
+        <v>102.64945253962</v>
+      </c>
+      <c r="G3" s="8">
+        <v>71923</v>
+      </c>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="20.25">
@@ -3311,11 +3331,21 @@
       <c r="B4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="25">
+        <v>42.131269952316899</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.94016002490550998</v>
+      </c>
+      <c r="E4" s="25">
+        <v>10.3324683817918</v>
+      </c>
+      <c r="F4" s="25">
+        <v>102.898185407779</v>
+      </c>
+      <c r="G4" s="8">
+        <v>71776</v>
+      </c>
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="20.25">

--- a/evaluation/records_noisy2denoised.xlsx
+++ b/evaluation/records_noisy2denoised.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3043C5E7-9930-424A-A8FD-36D03250044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47054FA0-3B95-47DC-BCC4-8E5ED21E237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
     <sheet name="BM4D" sheetId="2" r:id="rId2"/>
     <sheet name="NAC" sheetId="4" r:id="rId3"/>
     <sheet name="N2V" sheetId="3" r:id="rId4"/>
-    <sheet name="Nb2Nb" sheetId="5" r:id="rId5"/>
+    <sheet name="Nb2Nb_2D" sheetId="5" r:id="rId5"/>
     <sheet name="ZS-N2N" sheetId="6" r:id="rId6"/>
     <sheet name="Nb2Nb-exten" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="231">
   <si>
     <t>CPU</t>
   </si>
@@ -2624,7 +2624,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A2:B20"/>
+      <selection sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3217,12 +3217,321 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86675838-1EA4-4DCF-8D08-4257FE160341}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25">
+      <c r="A1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25">
+      <c r="A2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25">
+        <v>46.926165571569499</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.98121477697122705</v>
+      </c>
+      <c r="E2" s="25">
+        <v>14.142290022689799</v>
+      </c>
+      <c r="F2" s="25">
+        <v>102.815492679749</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25">
+      <c r="A3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25">
+      <c r="A4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25">
+      <c r="A5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25">
+      <c r="A6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25">
+      <c r="A7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25">
+      <c r="A8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25">
+      <c r="A9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25">
+      <c r="A10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25">
+      <c r="A11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25">
+      <c r="A12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25">
+      <c r="A13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25">
+      <c r="A14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25">
+      <c r="A15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25">
+      <c r="A16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25">
+      <c r="A17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25">
+      <c r="A18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25">
+      <c r="A19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25">
+      <c r="A20" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="22"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3232,7 +3541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B521F164-EA15-4361-9E5C-55D20E33E938}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/evaluation/records_noisy2denoised.xlsx
+++ b/evaluation/records_noisy2denoised.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47054FA0-3B95-47DC-BCC4-8E5ED21E237F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF1AFF0-6F5C-4690-9C0A-4CE568CF1622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
     <sheet name="BM4D" sheetId="2" r:id="rId2"/>
     <sheet name="NAC" sheetId="4" r:id="rId3"/>
     <sheet name="N2V" sheetId="3" r:id="rId4"/>
-    <sheet name="Nb2Nb_2D" sheetId="5" r:id="rId5"/>
+    <sheet name="Nb2Nb" sheetId="5" r:id="rId5"/>
     <sheet name="ZS-N2N" sheetId="6" r:id="rId6"/>
     <sheet name="Nb2Nb-exten" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="232">
   <si>
     <t>CPU</t>
   </si>
@@ -748,6 +747,10 @@
   </si>
   <si>
     <t>1704 slices</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 13</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2624,7 +2627,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3219,12 +3222,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86675838-1EA4-4DCF-8D08-4257FE160341}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
@@ -3264,20 +3268,24 @@
       <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="25">
-        <v>46.926165571569499</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0.98121477697122705</v>
-      </c>
-      <c r="E2" s="25">
-        <v>14.142290022689799</v>
-      </c>
-      <c r="F2" s="25">
-        <v>102.815492679749</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="1">
+        <v>38.480463428134001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.91601829846137905</v>
+      </c>
+      <c r="E2" s="1">
+        <v>17.090897399000799</v>
+      </c>
+      <c r="F2" s="1">
+        <v>96.025935740197298</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2386</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="20.25">
       <c r="A3" s="22" t="s">
@@ -3286,12 +3294,24 @@
       <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="22"/>
+      <c r="C3" s="1">
+        <v>39.699066409138702</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.92648879685678698</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14.301798540633101</v>
+      </c>
+      <c r="F3" s="1">
+        <v>109.910719606135</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4905</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="20.25">
       <c r="A4" s="22" t="s">
@@ -3300,12 +3320,24 @@
       <c r="B4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="22"/>
+      <c r="C4" s="1">
+        <v>35.5004305519913</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.942482711841649</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25.912220975384098</v>
+      </c>
+      <c r="F4" s="1">
+        <v>98.359771783892498</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3372</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="20.25">
       <c r="A5" s="22" t="s">
@@ -3314,10 +3346,10 @@
       <c r="B5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="8"/>
       <c r="H5" s="22"/>
     </row>
@@ -3328,10 +3360,10 @@
       <c r="B6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="8"/>
       <c r="H6" s="22"/>
     </row>
@@ -3541,17 +3573,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B521F164-EA15-4361-9E5C-55D20E33E938}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.625" customWidth="1"/>
     <col min="7" max="7" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="18.125" customWidth="1"/>
@@ -3664,11 +3696,21 @@
       <c r="B5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="25">
+        <v>43.2557116053013</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.95336116895704004</v>
+      </c>
+      <c r="E5" s="25">
+        <v>9.0212192074395698</v>
+      </c>
+      <c r="F5" s="25">
+        <v>103.032008112681</v>
+      </c>
+      <c r="G5" s="8">
+        <v>72474</v>
+      </c>
       <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="20.25">
@@ -3678,11 +3720,21 @@
       <c r="B6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="25">
+        <v>44.587809308846303</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.96535199023166196</v>
+      </c>
+      <c r="E6" s="25">
+        <v>7.6964776205131704</v>
+      </c>
+      <c r="F6" s="25">
+        <v>102.951529328752</v>
+      </c>
+      <c r="G6" s="8">
+        <v>71866</v>
+      </c>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="20.25">
@@ -3692,11 +3744,21 @@
       <c r="B7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="25">
+        <v>46.2496682975342</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.97594545823405099</v>
+      </c>
+      <c r="E7" s="25">
+        <v>6.32254465518053</v>
+      </c>
+      <c r="F7" s="25">
+        <v>102.531442398202</v>
+      </c>
+      <c r="G7" s="8">
+        <v>71874</v>
+      </c>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="20.25">
@@ -3706,11 +3768,21 @@
       <c r="B8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="25">
+        <v>48.346742142642498</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.984744699385938</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4.9437455024089996</v>
+      </c>
+      <c r="F8" s="25">
+        <v>101.94035920553399</v>
+      </c>
+      <c r="G8" s="8">
+        <v>69839</v>
+      </c>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="20.25">
@@ -3720,11 +3792,21 @@
       <c r="B9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="25">
+        <v>51.716133252272201</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.99199259199697698</v>
+      </c>
+      <c r="E9" s="25">
+        <v>3.4267277912113001</v>
+      </c>
+      <c r="F9" s="25">
+        <v>99.328282090012294</v>
+      </c>
+      <c r="G9" s="8">
+        <v>70444</v>
+      </c>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="20.25">
@@ -3734,11 +3816,21 @@
       <c r="B10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="25">
+        <v>59.731116505652402</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.99713079316277897</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1.68628278447431</v>
+      </c>
+      <c r="F10" s="25">
+        <v>92.038502622642596</v>
+      </c>
+      <c r="G10" s="8">
+        <v>70237</v>
+      </c>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="20.25">
@@ -3748,16 +3840,16 @@
       <c r="B11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>37.583822942775299</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>0.84661280764048596</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>18.8989078670274</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>98.886437651762506</v>
       </c>
       <c r="G11" s="7">

--- a/evaluation/records_noisy2denoised.xlsx
+++ b/evaluation/records_noisy2denoised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guchen/repo/cardiac-dynamic-pet-denoising/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A06A424-1B20-40F2-BB11-82E132E2197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD274FF-CF39-C549-A48C-B91A6454E2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27460" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -428,27 +428,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.000000_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="185" formatCode="0.000000;[Red]0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="166" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="168" formatCode="0.00_ "/>
+    <numFmt numFmtId="169" formatCode="0.000000_ "/>
+    <numFmt numFmtId="170" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="171" formatCode="0.000000;[Red]0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -457,7 +457,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -466,7 +466,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,14 +474,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -503,7 +503,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -535,6 +535,43 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -608,20 +645,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -630,7 +667,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -642,32 +679,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -679,58 +707,99 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
-    <cellStyle name="输出" xfId="2" builtinId="21"/>
-    <cellStyle name="着色 2" xfId="4" builtinId="33"/>
-    <cellStyle name="着色 6" xfId="5" builtinId="49"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1073,9 +1142,9 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1091,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1107,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="I10" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1165,7 +1234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="I14" t="s">
         <v>24</v>
       </c>
@@ -1179,7 +1248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="I15" t="s">
         <v>28</v>
       </c>
@@ -1187,7 +1256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="I16" t="s">
         <v>30</v>
       </c>
@@ -1195,7 +1264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1203,32 +1272,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1250,27 +1319,27 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="38" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="29" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="29" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="37" customWidth="1"/>
-    <col min="8" max="8" width="9" style="27"/>
+    <col min="1" max="1" width="17.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9" style="24"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -1285,18 +1354,18 @@
       <c r="F1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="15">
@@ -1311,16 +1380,16 @@
       <c r="F2" s="15">
         <v>110.104117</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="15">
@@ -1335,16 +1404,16 @@
       <c r="F3" s="15">
         <v>110.102029</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="15">
@@ -1359,16 +1428,16 @@
       <c r="F4" s="15">
         <v>110.087626</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="15">
@@ -1383,16 +1452,16 @@
       <c r="F5" s="15">
         <v>110.04902199999999</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="15">
@@ -1407,16 +1476,16 @@
       <c r="F6" s="15">
         <v>109.986284</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="15">
@@ -1431,16 +1500,16 @@
       <c r="F7" s="15">
         <v>109.892999</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="15">
@@ -1455,16 +1524,16 @@
       <c r="F8" s="15">
         <v>109.776567</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="15">
@@ -1479,16 +1548,16 @@
       <c r="F9" s="15">
         <v>109.643586</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="15">
@@ -1503,16 +1572,16 @@
       <c r="F10" s="15">
         <v>109.46563399999999</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="15">
@@ -1527,16 +1596,16 @@
       <c r="F11" s="15">
         <v>111.067924</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="15">
@@ -1551,16 +1620,16 @@
       <c r="F12" s="15">
         <v>110.904667</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="15">
@@ -1575,16 +1644,16 @@
       <c r="F13" s="15">
         <v>110.94351</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="15">
@@ -1599,18 +1668,18 @@
       <c r="F14" s="15">
         <v>110.95832</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="15">
@@ -1625,16 +1694,16 @@
       <c r="F15" s="15">
         <v>110.97497300000001</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="15">
@@ -1649,16 +1718,16 @@
       <c r="F16" s="15">
         <v>111.157584</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="15">
@@ -1673,16 +1742,16 @@
       <c r="F17" s="15">
         <v>110.687313</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="15">
@@ -1697,16 +1766,16 @@
       <c r="F18" s="15">
         <v>110.534904</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="15">
@@ -1721,16 +1790,16 @@
       <c r="F19" s="15">
         <v>110.48666</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="15">
@@ -1745,59 +1814,59 @@
       <c r="F20" s="15">
         <v>109.581464</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="34"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:C20">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1811,7 +1880,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1825,7 +1894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1839,7 +1908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1853,19 +1922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0D20DE5-41C9-4BF2-9E54-CC5CEFE2AA53}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1874,6 +1931,18 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF5A8AC6"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0D20DE5-41C9-4BF2-9E54-CC5CEFE2AA53}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,7 +2009,7 @@
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
+              <x14:borderColor rgb="FFD6007B"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
@@ -1962,23 +2031,23 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9" style="22"/>
-    <col min="3" max="3" width="17.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="17.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:10" ht="21">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -1993,20 +2062,20 @@
       <c r="F1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:10" ht="21">
+      <c r="A2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="15">
@@ -2021,10 +2090,10 @@
       <c r="F2" s="15">
         <v>27.781311102733799</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="35">
         <v>3478</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="21" t="s">
         <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2034,11 +2103,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:10" ht="21">
+      <c r="A3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="15">
@@ -2053,20 +2122,20 @@
       <c r="F3" s="15">
         <v>27.021698103898601</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="35">
         <v>4213</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:10" ht="21">
+      <c r="A4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="15">
@@ -2081,20 +2150,20 @@
       <c r="F4" s="15">
         <v>26.979348711661299</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="35">
         <v>2996</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="21" t="s">
         <v>107</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="1:10" ht="21">
+      <c r="A5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="15">
@@ -2109,10 +2178,10 @@
       <c r="F5" s="15">
         <v>29.1059404281478</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="35">
         <v>2919</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
         <v>109</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2120,11 +2189,11 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="1:10" ht="21">
+      <c r="A6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="15">
@@ -2139,20 +2208,20 @@
       <c r="F6" s="15">
         <v>31.374394534795101</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="35">
         <v>2554</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="1:10" ht="21">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="15">
@@ -2167,20 +2236,20 @@
       <c r="F7" s="15">
         <v>32.160053533685797</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="35">
         <v>3458</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="21" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:10" ht="21">
+      <c r="A8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="15">
@@ -2195,20 +2264,20 @@
       <c r="F8" s="15">
         <v>35.206627976728797</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="35">
         <v>5328</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>115</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:10" ht="21">
+      <c r="A9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="15">
@@ -2223,20 +2292,20 @@
       <c r="F9" s="15">
         <v>42.692901425903003</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="35">
         <v>2959</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:10" ht="21">
+      <c r="A10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="15">
@@ -2251,20 +2320,20 @@
       <c r="F10" s="15">
         <v>53.895097678635999</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="35">
         <v>4082</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>106</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:10" ht="21">
+      <c r="A11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="15">
@@ -2279,20 +2348,20 @@
       <c r="F11" s="15">
         <v>26.467567767358599</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="36">
         <v>5583</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>108</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:10" ht="21">
+      <c r="A12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="15">
@@ -2307,20 +2376,20 @@
       <c r="F12" s="15">
         <v>74.053341281934905</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="35">
         <v>5952</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>110</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:10" ht="21">
+      <c r="A13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="15">
@@ -2335,20 +2404,20 @@
       <c r="F13" s="15">
         <v>84.007239132571399</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="35">
         <v>6624</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="21" t="s">
         <v>105</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:10" ht="21">
+      <c r="A14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="15">
@@ -2363,20 +2432,20 @@
       <c r="F14" s="15">
         <v>88.611355585760407</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="35">
         <v>6812</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>105</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:10" ht="21">
+      <c r="A15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="15">
@@ -2391,20 +2460,20 @@
       <c r="F15" s="15">
         <v>92.238684182450399</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="35">
         <v>7315</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="21" t="s">
         <v>112</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:10" ht="21">
+      <c r="A16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="15">
@@ -2419,20 +2488,20 @@
       <c r="F16" s="15">
         <v>32.1315866861869</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="35">
         <v>6557</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="21" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:10" ht="21">
+      <c r="A17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="15">
@@ -2447,20 +2516,20 @@
       <c r="F17" s="15">
         <v>27.9071675512326</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="35">
         <v>9317</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>116</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:10" ht="21">
+      <c r="A18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="15">
@@ -2475,20 +2544,20 @@
       <c r="F18" s="15">
         <v>34.805503646162499</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="36">
         <v>9258</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="21" t="s">
         <v>116</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="1:10" ht="21">
+      <c r="A19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="15">
@@ -2503,20 +2572,20 @@
       <c r="F19" s="15">
         <v>45.045707811331603</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="35">
         <v>6056</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="21" t="s">
         <v>117</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:10" ht="21">
+      <c r="A20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="15">
@@ -2531,8 +2600,8 @@
       <c r="F20" s="15">
         <v>104.20225110479799</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
@@ -2664,210 +2733,210 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9" style="35"/>
-    <col min="2" max="2" width="9" style="36"/>
-    <col min="3" max="3" width="15.625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="48" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="48" customWidth="1"/>
-    <col min="7" max="7" width="27" style="36" customWidth="1"/>
-    <col min="8" max="8" width="31" style="35" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="2" width="9" style="32"/>
+    <col min="3" max="3" width="15.6640625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="27" style="32" customWidth="1"/>
+    <col min="8" max="8" width="31" style="31" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="11" customWidth="1"/>
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:12" ht="21">
+      <c r="A2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="41">
         <v>72.736772999999999</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="41">
         <v>0.999942</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="41">
         <v>0.15406500000000001</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="41">
         <v>32.752752000000001</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="18">
         <v>11985</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="21" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:12" ht="21">
+      <c r="A3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="41">
         <v>63.315669999999997</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="41">
         <v>0.99970400000000004</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="41">
         <v>0.46955999999999998</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="41">
         <v>33.970677000000002</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>6645</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>83</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:12" ht="21">
+      <c r="A4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="41">
         <v>70.003934999999998</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="41">
         <v>0.99987499999999996</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="41">
         <v>0.20816599999999999</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="41">
         <v>35.511999000000003</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <v>13508</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="21" t="s">
         <v>84</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="1:12" ht="21">
+      <c r="A5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="41">
         <v>72.872101000000001</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="41">
         <v>0.99991799999999997</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="41">
         <v>0.19910700000000001</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="41">
         <v>37.577263000000002</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>13022</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="21" t="s">
         <v>85</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="1:12" ht="21">
+      <c r="A6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="41">
         <v>72.902918</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="41">
         <v>0.99990500000000004</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <v>0.179309</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="41">
         <v>40.421661999999998</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>16998</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>86</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="1:12" ht="21">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="41">
         <v>68.257197000000005</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="41">
         <v>0.99989799999999995</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="41">
         <v>0.25293199999999999</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="41">
         <v>44.288778999999998</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <v>5388</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="21" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2875,113 +2944,113 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:12" ht="21">
+      <c r="A8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="41">
         <v>72.208295000000007</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="41">
         <v>0.99990000000000001</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="41">
         <v>0.22450300000000001</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="41">
         <v>49.953819000000003</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <v>12801</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:12" ht="21">
+      <c r="A9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="41">
         <v>71.261355752175007</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <v>0.99990612880717999</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="41">
         <v>0.20456170305260399</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="41">
         <v>58.388631050727803</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>11833</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>90</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:12" ht="21">
+      <c r="A10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="41">
         <v>73.410279037801899</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="41">
         <v>0.99991681042209901</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="41">
         <v>0.205691267881775</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="41">
         <v>72.198415477909506</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <v>10253</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>91</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:12" ht="21">
+      <c r="A11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="41">
         <v>69.017758177915795</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="41">
         <v>0.99990022051126404</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="41">
         <v>0.28670435328967803</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="41">
         <v>151.08046044799201</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="39">
         <v>11650</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>92</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -2992,253 +3061,253 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:12" ht="21">
+      <c r="A12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="41">
         <v>73.053010043127003</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="41">
         <v>0.99995893692412596</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="41">
         <v>0.24595438759570201</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="41">
         <v>150.94897552922799</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>11033</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>93</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:12" ht="21">
+      <c r="A13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="41">
         <v>70.0864818321472</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <v>0.99990301347556498</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>0.306345996126765</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="41">
         <v>150.592626916081</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>13895</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="21" t="s">
         <v>94</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:12" ht="21">
+      <c r="A14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="41">
         <v>65.045143517056502</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="41">
         <v>0.999946827195341</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="41">
         <v>9.7673917480278706E-5</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="41">
         <v>155.845</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>13331</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>96</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:12" ht="21">
+      <c r="A15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="41">
         <v>72.866218009841603</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <v>0.99994369012752204</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="41">
         <v>0.16201935649587501</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="41">
         <v>148.73352611712801</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>9583</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="21" t="s">
         <v>98</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:12" ht="21">
+      <c r="A16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="42">
         <v>73.069458725139299</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="42">
         <v>0.99992596226554498</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="42">
         <v>0.18877050939045101</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="42">
         <v>34.809864451223497</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <v>13665</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="21" t="s">
         <v>99</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:10" ht="21">
+      <c r="A17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="42">
         <v>72.684363787667394</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="42">
         <v>0.99992393364699494</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="42">
         <v>0.193462881245068</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="42">
         <v>28.259755688851801</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="18">
         <v>8259</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="21" t="s">
         <v>100</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:10" ht="21">
+      <c r="A18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="42">
         <v>61.736953310268802</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="42">
         <v>0.99955766262807</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="42">
         <v>0.22372418248414699</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="42">
         <v>34.379446848052098</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>14221</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="21" t="s">
         <v>102</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="1:10" ht="21">
+      <c r="A19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="42">
         <v>70.801012945922807</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="42">
         <v>0.99992392224826099</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="42">
         <v>0.206715363085095</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="42">
         <v>44.043669171066398</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <v>13449</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:10" ht="21">
+      <c r="A20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="42">
         <v>73.725731398610606</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="42">
         <v>0.99985502449521302</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="42">
         <v>0.171883631484888</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="42">
         <v>108.252398451197</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="18">
         <v>9078</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="21" t="s">
         <v>89</v>
       </c>
       <c r="I20" s="12"/>
@@ -3371,23 +3440,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86675838-1EA4-4DCF-8D08-4257FE160341}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -3413,7 +3482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -3439,7 +3508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
@@ -3465,7 +3534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -3491,7 +3560,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
@@ -3505,7 +3574,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>49</v>
       </c>
@@ -3519,7 +3588,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
@@ -3533,7 +3602,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -3547,7 +3616,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
@@ -3561,7 +3630,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
@@ -3575,7 +3644,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
@@ -3589,7 +3658,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>68</v>
       </c>
@@ -3603,7 +3672,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>68</v>
       </c>
@@ -3617,7 +3686,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>68</v>
       </c>
@@ -3631,7 +3700,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -3645,7 +3714,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
@@ -3659,7 +3728,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>68</v>
       </c>
@@ -3673,7 +3742,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>68</v>
       </c>
@@ -3687,7 +3756,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>68</v>
       </c>
@@ -3701,7 +3770,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>79</v>
       </c>
@@ -3718,7 +3787,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3732,7 +3801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3746,7 +3815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3760,7 +3829,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3769,6 +3838,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BA625269-A041-45D4-82AA-B594ED032B6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A38D3E46-A92B-5F4C-9A94-5A2556540C4B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3829,6 +3912,19 @@
           </x14:cfRule>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A38D3E46-A92B-5F4C-9A94-5A2556540C4B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3839,490 +3935,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B521F164-EA15-4361-9E5C-55D20E33E938}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="56">
         <v>40.249423032020097</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="56">
         <v>0.91047633303022801</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="57">
         <v>12.927733879070701</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="57">
         <v>102.169432167053</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="60">
         <v>72099</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="49" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="56">
         <v>41.121494605117299</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="56">
         <v>0.92570687130212004</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="57">
         <v>11.646246200427401</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="57">
         <v>102.64945253962</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="60">
         <v>71923</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="56">
         <v>42.131269952316899</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="56">
         <v>0.94016002490550998</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="57">
         <v>10.3324683817918</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="57">
         <v>102.898185407779</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="60">
         <v>71776</v>
       </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="56">
         <v>43.2557116053013</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="56">
         <v>0.95336116895704004</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="57">
         <v>9.0212192074395698</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="57">
         <v>103.032008112681</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="60">
         <v>72474</v>
       </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="56">
         <v>44.587809308846303</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="56">
         <v>0.96535199023166196</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="57">
         <v>7.6964776205131704</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="57">
         <v>102.951529328752</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="60">
         <v>71866</v>
       </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="56">
         <v>46.2496682975342</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="56">
         <v>0.97594545823405099</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="57">
         <v>6.32254465518053</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="57">
         <v>102.531442398202</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="60">
         <v>71874</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="56">
         <v>48.346742142642498</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="56">
         <v>0.984744699385938</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="57">
         <v>4.9437455024089996</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="57">
         <v>101.94035920553399</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="60">
         <v>69839</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="56">
         <v>51.716133252272201</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="56">
         <v>0.99199259199697698</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="57">
         <v>3.4267277912113001</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="57">
         <v>99.328282090012294</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="60">
         <v>70444</v>
       </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="56">
         <v>59.731116505652402</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="56">
         <v>0.99713079316277897</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="57">
         <v>1.68628278447431</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="57">
         <v>92.038502622642596</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="60">
         <v>70237</v>
       </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="58">
         <v>37.583821999999998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="58">
         <v>0.84661200000000003</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="58">
         <v>18.898907000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="58">
         <v>98.886437651762506</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="60">
         <v>68372</v>
       </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="56">
         <v>37.8762146742447</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="56">
         <v>0.85542632251536599</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="57">
         <v>18.1831856528297</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="57">
         <v>99.351167774429797</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="60">
         <v>72108</v>
       </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="56">
         <v>38.431856773010402</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="56">
         <v>0.87015168879667704</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="57">
         <v>16.912678663036701</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="57">
         <v>100.592938934763</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="60">
         <v>70775</v>
       </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="56">
         <v>39.022804699352498</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="56">
         <v>0.885007221702376</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="57">
         <v>15.494000552222101</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="57">
         <v>101.222233247346</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="60">
         <v>70123</v>
       </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="56">
         <v>39.715382531450402</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="56">
         <v>0.90017456195392098</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="57">
         <v>13.903342055622399</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="57">
         <v>102.081843298679</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="60">
         <v>70092</v>
       </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="57">
         <v>40.687119497123298</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="57">
         <v>0.91841067557299905</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="57">
         <v>11.9114204589227</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="57">
         <v>102.974139493322</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="60">
         <v>70599</v>
       </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="57">
         <v>41.293461216987701</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="57">
         <v>0.92854181615569698</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="57">
         <v>10.434213637374301</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="57">
         <v>103.10796006149999</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="60">
         <v>71256</v>
       </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="57">
         <v>42.443506115731701</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="57">
         <v>0.94438147939463002</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="57">
         <v>8.3028107197023893</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="57">
         <v>103.17051159042801</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="60">
         <v>70332</v>
       </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="57">
+        <v>44.285203000000003</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0.96258299999999997</v>
+      </c>
+      <c r="E19" s="49">
+        <v>5.7918139999999996</v>
+      </c>
+      <c r="F19" s="58">
+        <v>103.655798</v>
+      </c>
+      <c r="G19" s="60">
+        <v>61580</v>
+      </c>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="61">
+        <v>80.517193000000006</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0.99874499999999999</v>
+      </c>
+      <c r="E20" s="49">
+        <v>0.41967900000000002</v>
+      </c>
+      <c r="F20" s="58">
+        <v>107.707067</v>
+      </c>
+      <c r="G20" s="59">
+        <v>61100</v>
+      </c>
+      <c r="H20" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="C1:C19 C21:C1048576">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4336,7 +4452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4349,8 +4465,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E1:E18 E21:E1048576">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4363,8 +4479,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="F1:F18 F21:F1048576">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4373,6 +4489,76 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FF4BAE23-1CFF-4A3F-9E90-0E93655D94A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61E3C6AD-84DA-EA43-BAFC-247664BED712}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F20">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C3078AD-EFED-5040-9DF4-BFA5F345A722}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E20">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4C4EA94-437D-8A48-B187-E5AE2BB1074B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68C91588-B777-2F4E-9A94-857A8AC339A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42EEA4F4-10CC-F141-97F4-838174CB0B2D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4392,7 +4578,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C19 C21:C1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D2EA08E6-B666-4A2D-95AC-869EB2F7FE26}">
@@ -4418,7 +4604,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E1:E18 E21:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF4BAE23-1CFF-4A3F-9E90-0E93655D94A0}">
@@ -4431,7 +4617,72 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1:F18 F21:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61E3C6AD-84DA-EA43-BAFC-247664BED712}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7C3078AD-EFED-5040-9DF4-BFA5F345A722}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F19:F20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4C4EA94-437D-8A48-B187-E5AE2BB1074B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E19:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68C91588-B777-2F4E-9A94-857A8AC339A0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42EEA4F4-10CC-F141-97F4-838174CB0B2D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4447,14 +4698,14 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="49"/>
+    <col min="7" max="7" width="9" style="44"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -4473,14 +4724,14 @@
       <c r="F1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -4491,10 +4742,10 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="40"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
@@ -4505,10 +4756,10 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="40"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -4519,10 +4770,10 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
@@ -4533,10 +4784,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="40"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>49</v>
       </c>
@@ -4547,10 +4798,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="40"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
@@ -4561,10 +4812,10 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="40"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -4575,10 +4826,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
@@ -4589,10 +4840,10 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="40"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
@@ -4603,10 +4854,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
@@ -4617,10 +4868,10 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="41"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>68</v>
       </c>
@@ -4631,10 +4882,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>68</v>
       </c>
@@ -4645,10 +4896,10 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>68</v>
       </c>
@@ -4659,10 +4910,10 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="40"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -4673,10 +4924,10 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
@@ -4687,10 +4938,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>68</v>
       </c>
@@ -4701,10 +4952,10 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>68</v>
       </c>
@@ -4715,10 +4966,10 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>68</v>
       </c>
@@ -4729,10 +4980,10 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>79</v>
       </c>
@@ -4743,7 +4994,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="12"/>
     </row>
   </sheetData>
@@ -4874,14 +5125,14 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="49"/>
+    <col min="7" max="7" width="9" style="44"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -4900,14 +5151,14 @@
       <c r="F1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="34" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>49</v>
       </c>
@@ -4918,10 +5169,10 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="40"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
@@ -4932,10 +5183,10 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="40"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -4946,10 +5197,10 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
@@ -4960,10 +5211,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="40"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>49</v>
       </c>
@@ -4974,10 +5225,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="40"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
@@ -4988,10 +5239,10 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="40"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -5002,10 +5253,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
@@ -5016,10 +5267,10 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="40"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
@@ -5030,10 +5281,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="40"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
@@ -5044,10 +5295,10 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="41"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>68</v>
       </c>
@@ -5058,10 +5309,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>68</v>
       </c>
@@ -5072,10 +5323,10 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>68</v>
       </c>
@@ -5086,10 +5337,10 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="40"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
@@ -5100,10 +5351,10 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="40"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>68</v>
       </c>
@@ -5114,10 +5365,10 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>68</v>
       </c>
@@ -5128,10 +5379,10 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>68</v>
       </c>
@@ -5142,10 +5393,10 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>68</v>
       </c>
@@ -5156,10 +5407,10 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>79</v>
       </c>
@@ -5170,7 +5421,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="12"/>
     </row>
   </sheetData>

--- a/evaluation/records_noisy2denoised.xlsx
+++ b/evaluation/records_noisy2denoised.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guchen/repo/cardiac-dynamic-pet-denoising/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD274FF-CF39-C549-A48C-B91A6454E2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C957127-AE12-FD4B-949F-58B4055DA566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27460" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3441,7 +3441,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>

--- a/evaluation/records_noisy2denoised.xlsx
+++ b/evaluation/records_noisy2denoised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guchen/repo/cardiac-dynamic-pet-denoising/evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cardiac-dynamic-pet-denoising\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C957127-AE12-FD4B-949F-58B4055DA566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BEF4DC-18A2-4C15-A849-3C519530B828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27460" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="127">
   <si>
     <t>CPU</t>
   </si>
@@ -420,6 +420,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch 50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>earlystop at epoch 33</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -428,27 +452,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="0.00000000_ "/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
-    <numFmt numFmtId="166" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="168" formatCode="0.00_ "/>
-    <numFmt numFmtId="169" formatCode="0.000000_ "/>
-    <numFmt numFmtId="170" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="171" formatCode="0.000000;[Red]0.000000"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.000000;[Red]0.000000"/>
+    <numFmt numFmtId="183" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -457,7 +481,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -466,7 +490,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,14 +498,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -503,7 +527,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -645,20 +669,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -667,7 +690,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -679,23 +702,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -707,50 +727,50 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -766,40 +786,40 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
-    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="差" xfId="1" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
+    <cellStyle name="着色 2" xfId="4" builtinId="33"/>
+    <cellStyle name="着色 6" xfId="5" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1142,9 +1162,9 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1184,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>10</v>
       </c>
@@ -1192,7 +1212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I14" t="s">
         <v>24</v>
       </c>
@@ -1248,7 +1268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I15" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="I16" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1272,32 +1292,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1319,554 +1339,554 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="9" style="24"/>
+    <col min="1" max="1" width="17.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="9" style="22"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>40.130600000000001</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>0.90583599999999997</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>13.35843</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>110.104117</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>40.988737999999998</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>0.92125999999999997</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>12.102792000000001</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>110.102029</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>41.955255000000001</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>0.93585700000000005</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>10.828861</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>110.087626</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>43.059323999999997</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>0.94944399999999995</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>9.5365216099999994</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>110.04902199999999</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>44.343463</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>0.96182400000000001</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>8.2259019999999996</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>109.986284</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>45.873370000000001</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>0.97279599999999999</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>6.8973079999999998</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>109.892999</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>47.759480000000003</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>0.98216199999999998</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>5.5511600000000003</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>109.776567</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>50.206181999999998</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>0.98972499999999997</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>4.1894090000000004</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>109.643586</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>53.670543000000002</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>0.99530700000000005</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>2.8142619999999998</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>109.46563399999999</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>37.156244000000001</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>0.83114699999999997</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>19.255395</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>111.067924</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>37.645333000000001</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>0.84618000000000004</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>18.486924999999999</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>110.904667</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>38.295524</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>0.86438499999999996</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>17.183672000000001</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>110.94351</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>38.530292000000003</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>0.87073199999999995</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>15.758946999999999</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>110.95832</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>39.198037999999997</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>0.88689899999999999</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>14.161092999999999</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>110.97497300000001</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>40.488798000000003</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>0.913049</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>12.155720000000001</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>111.157584</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>40.958669</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>0.92137100000000005</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>10.633913</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>110.687313</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>42.204830999999999</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>0.93966000000000005</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>8.5318252000000001</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>110.534904</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>43.781236</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>0.95711999999999997</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>6.0526169000000003</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>110.48666</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="21" t="s">
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>75.774825000000007</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>0.99924000000000002</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>0.43383100000000002</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>109.581464</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="30"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:C20">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1880,7 +1900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1894,7 +1914,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1908,7 +1928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1922,16 +1942,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1943,6 +1953,16 @@
           <x14:id>{B0D20DE5-41C9-4BF2-9E54-CC5CEFE2AA53}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2028,72 +2048,72 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="17.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17"/>
+    <col min="3" max="3" width="17.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>37.188529051176097</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>0.87860468622254395</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>20.617415339685898</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>27.781311102733799</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="33">
         <v>3478</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2103,85 +2123,85 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>38.567865137799103</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>0.89943954453264996</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>19.318458780413401</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>27.021698103898601</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="33">
         <v>4213</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>38.7397316498216</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>0.90160056875544903</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>17.481966905761499</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>26.979348711661299</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="33">
         <v>2996</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>107</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>40.163727595948799</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>0.92250830922778804</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>14.8543341662734</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>29.1059404281478</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>2919</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>109</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2189,426 +2209,426 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>40.200984733896</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>0.92793933919636895</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>13.233305028174</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <v>31.374394534795101</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>2554</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>43.325703878489698</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>0.95556160528584899</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>10.873564794892401</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>32.160053533685797</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="33">
         <v>3458</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>44.693964932438703</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>0.96373598069284105</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>9.3823316604830307</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>35.206627976728797</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="33">
         <v>5328</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>46.546956756102098</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>0.97444879507888804</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>7.3220228945137897</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>42.692901425903003</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="33">
         <v>2959</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>109</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>49.416067437798901</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>0.98374311744381104</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>5.5134684382355701</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>53.895097678635999</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>4082</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>106</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="21">
-      <c r="A11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>37.2317849705166</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>0.88620960944275695</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>7.9630515704629898</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>26.467567767358599</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>5583</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>108</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>46.830578951028798</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <v>0.93292217987423598</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>14.8154791762353</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>74.053341281934905</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="33">
         <v>5952</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>110</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>48.0480831732525</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <v>0.92355120974287297</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>13.346919829054899</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>84.007239132571399</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="33">
         <v>6624</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>105</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>53.117147090434301</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <v>0.941521982323416</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>10.602083235891699</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>88.611355585760407</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="33">
         <v>6812</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>105</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>54.466761210136298</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <v>0.95675035677794595</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>7.8577481043394002</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>92.238684182450399</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="33">
         <v>7315</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>112</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>59.024202662281397</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>0.97167705203544796</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>5.9470246517521401</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>32.1315866861869</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="33">
         <v>6557</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>105</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>62.405919687757503</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <v>0.97881248499165496</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>4.4831228074763203</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>27.9071675512326</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="33">
         <v>9317</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>116</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>66.4539181092711</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>0.98719661491103206</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>3.0567661240202102</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>34.805503646162499</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="34">
         <v>9258</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="19" t="s">
         <v>116</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>64.703304239376294</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <v>0.99072316945068595</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>2.2451538045934201</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>45.045707811331603</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>6056</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="19" t="s">
         <v>117</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>73.494198723666699</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>0.99465262004482502</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>1.2921141675887999</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>104.20225110479799</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="21"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2622,7 +2642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2636,7 +2656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2650,7 +2670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2659,6 +2679,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F5E2DFFD-2110-4388-94F6-CC78E56C80DD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C774397C-4EAB-47D6-BC29-06E97862484A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2719,6 +2753,19 @@
           </x14:cfRule>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C774397C-4EAB-47D6-BC29-06E97862484A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -2730,593 +2777,593 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="31"/>
-    <col min="2" max="2" width="9" style="32"/>
-    <col min="3" max="3" width="15.6640625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="27" style="32" customWidth="1"/>
-    <col min="8" max="8" width="31" style="31" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="2" width="9" style="30"/>
+    <col min="3" max="3" width="15.625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="27" style="30" customWidth="1"/>
+    <col min="8" max="8" width="31" style="29" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="39">
         <v>72.736772999999999</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="39">
         <v>0.999942</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="39">
         <v>0.15406500000000001</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="39">
         <v>32.752752000000001</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="16">
         <v>11985</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>63.315669999999997</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="39">
         <v>0.99970400000000004</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="39">
         <v>0.46955999999999998</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="39">
         <v>33.970677000000002</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>6645</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="21">
-      <c r="A4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>70.003934999999998</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="39">
         <v>0.99987499999999996</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <v>0.20816599999999999</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="39">
         <v>35.511999000000003</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>13508</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="21">
-      <c r="A5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>72.872101000000001</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <v>0.99991799999999997</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>0.19910700000000001</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="39">
         <v>37.577263000000002</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>13022</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" ht="21">
-      <c r="A6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>72.902918</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="39">
         <v>0.99990500000000004</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>0.179309</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="39">
         <v>40.421661999999998</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>16998</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="21">
-      <c r="A7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>68.257197000000005</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="39">
         <v>0.99989799999999995</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>0.25293199999999999</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="39">
         <v>44.288778999999998</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>5388</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="21">
-      <c r="A8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>72.208295000000007</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="39">
         <v>0.99990000000000001</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>0.22450300000000001</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="39">
         <v>49.953819000000003</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>12801</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="21">
-      <c r="A9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>71.261355752175007</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <v>0.99990612880717999</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <v>0.20456170305260399</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="39">
         <v>58.388631050727803</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>11833</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="21">
-      <c r="A10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>73.410279037801899</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <v>0.99991681042209901</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <v>0.205691267881775</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="39">
         <v>72.198415477909506</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>10253</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="21">
-      <c r="A11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>69.017758177915795</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <v>0.99990022051126404</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <v>0.28670435328967803</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="39">
         <v>151.08046044799201</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="37">
         <v>11650</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="L11" s="11" t="s">
+      <c r="J11" s="11"/>
+      <c r="L11" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21">
-      <c r="A12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>73.053010043127003</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <v>0.99995893692412596</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <v>0.24595438759570201</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="39">
         <v>150.94897552922799</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>11033</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="21">
-      <c r="A13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>70.0864818321472</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <v>0.99990301347556498</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <v>0.306345996126765</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="39">
         <v>150.592626916081</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>13895</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="21">
-      <c r="A14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <v>65.045143517056502</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="39">
         <v>0.999946827195341</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <v>9.7673917480278706E-5</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <v>155.845</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>13331</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="21">
-      <c r="A15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>72.866218009841603</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="39">
         <v>0.99994369012752204</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="39">
         <v>0.16201935649587501</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="39">
         <v>148.73352611712801</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>9583</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="21">
-      <c r="A16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="40">
         <v>73.069458725139299</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="40">
         <v>0.99992596226554498</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="40">
         <v>0.18877050939045101</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="40">
         <v>34.809864451223497</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="16">
         <v>13665</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="40">
         <v>72.684363787667394</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="40">
         <v>0.99992393364699494</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="40">
         <v>0.193462881245068</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="40">
         <v>28.259755688851801</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <v>8259</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="40">
         <v>61.736953310268802</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="40">
         <v>0.99955766262807</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="40">
         <v>0.22372418248414699</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="40">
         <v>34.379446848052098</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>14221</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="40">
         <v>70.801012945922807</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="40">
         <v>0.99992392224826099</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="40">
         <v>0.206715363085095</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="40">
         <v>44.043669171066398</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <v>13449</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="21" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="40">
         <v>73.725731398610606</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="40">
         <v>0.99985502449521302</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="40">
         <v>0.171883631484888</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="40">
         <v>108.252398451197</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <v>9078</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3330,7 +3377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3344,7 +3391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3358,7 +3405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3367,6 +3414,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{4F3D825E-D3BB-463E-86F0-F0EEF9BB3324}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{541519A4-6044-4077-9679-2BFA70A6E774}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3430,6 +3491,19 @@
           </x14:cfRule>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{541519A4-6044-4077-9679-2BFA70A6E774}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3441,353 +3515,509 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>38.480463428134001</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.91601829846137905</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>17.090897399000799</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>96.025935740197298</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>2386</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>39.699066409138702</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.92648879685678698</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>14.301798540633101</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>109.910719606135</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>4905</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>35.5004305519913</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0.942482711841649</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>25.912220975384098</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>98.359771783892498</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>3372</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="2">
+        <v>41.926929999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.957511</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11.667535000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>106.115905</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5946</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="2">
+        <v>40.110745999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.95109399999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13.65522</v>
+      </c>
+      <c r="F6" s="2">
+        <v>96.437850999999995</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7028</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C7" s="2">
+        <v>39.094391999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.96060100000000004</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15.911666</v>
+      </c>
+      <c r="F7" s="2">
+        <v>102.97672300000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7015</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="C8" s="2">
+        <v>42.301895000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.98150800000000005</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12.723789999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>71.456536</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7126</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C9" s="2">
+        <v>37.585745000000003</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.97763999999999995</v>
+      </c>
+      <c r="E9" s="2">
+        <v>21.842383999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>104.337537</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6990</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C10" s="2">
+        <v>44.083405999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.99297199999999997</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8.6426660000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>106.39388099999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3085</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C11" s="2">
+        <v>47.990178</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98473699999999997</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18.821255000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>103.087202</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4075</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="C12" s="2">
+        <v>36.746744</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.85994199999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16.913644999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>104.951258</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6835</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C13" s="2">
+        <v>37.582075000000003</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.87438700000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15.211518999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>104.615437</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6228</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C14" s="2">
+        <v>39.067967000000003</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.89483500000000005</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15.334472999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>96.184584000000001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7050</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C15" s="2">
+        <v>39.086703</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.90334800000000004</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13.079231999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>103.665604</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7054</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="2">
+        <v>39.439208000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.91133600000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>11.984518</v>
+      </c>
+      <c r="F16" s="2">
+        <v>105.440934</v>
+      </c>
+      <c r="G16" s="4">
+        <v>7057</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C17" s="2">
+        <v>40.767426</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.93549400000000005</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10.295854</v>
+      </c>
+      <c r="F17" s="2">
+        <v>103.500355</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7012</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="C1:C5 C18:C1048576">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3800,8 +4030,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="D1:D5 D18:D1048576">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3814,8 +4044,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E1:E5 E18:E1048576">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3828,8 +4058,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="F1:F5 F18:F1048576">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3843,7 +4073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3852,6 +4082,90 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{A38D3E46-A92B-5F4C-9A94-5A2556540C4B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C6 C18:C1048576">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C6744527-6B68-425A-BFB4-B0F6F1E11676}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C7 C18:C1048576">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{756829E0-513B-4BED-86B5-B617FB46ED94}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D0A7C823-79C1-4BAB-841D-1A2F4C3B4C62}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FB7A007A-5360-4B68-97C0-F386603BAE1A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{30AE8C38-09F4-462C-BDBC-77599B8BBAAF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ABDAE0C2-4582-4866-BA0C-0A505C8CF866}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3871,7 +4185,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1:C5 C18:C1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EF22F1B7-F7F2-4B68-8FE9-36C4A3ADC644}">
@@ -3884,7 +4198,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1:D5 D18:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B85B228D-443D-4FDD-A737-39808D2A0303}">
@@ -3897,7 +4211,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E1:E5 E18:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA625269-A041-45D4-82AA-B594ED032B6C}">
@@ -3910,7 +4224,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1:F5 F18:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A38D3E46-A92B-5F4C-9A94-5A2556540C4B}">
@@ -3924,6 +4238,84 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C6744527-6B68-425A-BFB4-B0F6F1E11676}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C6 C18:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{756829E0-513B-4BED-86B5-B617FB46ED94}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C7 C18:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D0A7C823-79C1-4BAB-841D-1A2F4C3B4C62}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FB7A007A-5360-4B68-97C0-F386603BAE1A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{30AE8C38-09F4-462C-BDBC-77599B8BBAAF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ABDAE0C2-4582-4866-BA0C-0A505C8CF866}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3939,501 +4331,501 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="54">
         <v>40.249423032020097</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="54">
         <v>0.91047633303022801</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="55">
         <v>12.927733879070701</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="55">
         <v>102.169432167053</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="58">
         <v>72099</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="47" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="54">
         <v>41.121494605117299</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="54">
         <v>0.92570687130212004</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="55">
         <v>11.646246200427401</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="55">
         <v>102.64945253962</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="58">
         <v>71923</v>
       </c>
-      <c r="H3" s="49"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="49" t="s">
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="54">
         <v>42.131269952316899</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="54">
         <v>0.94016002490550998</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="55">
         <v>10.3324683817918</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="55">
         <v>102.898185407779</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="58">
         <v>71776</v>
       </c>
-      <c r="H4" s="49"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="54">
         <v>43.2557116053013</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <v>0.95336116895704004</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="55">
         <v>9.0212192074395698</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="55">
         <v>103.032008112681</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="58">
         <v>72474</v>
       </c>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="54">
         <v>44.587809308846303</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="54">
         <v>0.96535199023166196</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="55">
         <v>7.6964776205131704</v>
       </c>
-      <c r="F6" s="57">
+      <c r="F6" s="55">
         <v>102.951529328752</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="58">
         <v>71866</v>
       </c>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="H6" s="47"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="54">
         <v>46.2496682975342</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <v>0.97594545823405099</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="55">
         <v>6.32254465518053</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="55">
         <v>102.531442398202</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="58">
         <v>71874</v>
       </c>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="49" t="s">
+      <c r="H7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="54">
         <v>48.346742142642498</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="54">
         <v>0.984744699385938</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="55">
         <v>4.9437455024089996</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="55">
         <v>101.94035920553399</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="58">
         <v>69839</v>
       </c>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="49" t="s">
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="54">
         <v>51.716133252272201</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>0.99199259199697698</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="55">
         <v>3.4267277912113001</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="55">
         <v>99.328282090012294</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="58">
         <v>70444</v>
       </c>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="49" t="s">
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="54">
         <v>59.731116505652402</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="54">
         <v>0.99713079316277897</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="55">
         <v>1.68628278447431</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="55">
         <v>92.038502622642596</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="58">
         <v>70237</v>
       </c>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>37.583821999999998</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="56">
         <v>0.84661200000000003</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="56">
         <v>18.898907000000001</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="56">
         <v>98.886437651762506</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="58">
         <v>68372</v>
       </c>
-      <c r="H11" s="49"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="49" t="s">
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="54">
         <v>37.8762146742447</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="54">
         <v>0.85542632251536599</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="55">
         <v>18.1831856528297</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="55">
         <v>99.351167774429797</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="58">
         <v>72108</v>
       </c>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="49" t="s">
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="54">
         <v>38.431856773010402</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="54">
         <v>0.87015168879667704</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="55">
         <v>16.912678663036701</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="55">
         <v>100.592938934763</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="58">
         <v>70775</v>
       </c>
-      <c r="H13" s="49"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="49" t="s">
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="54">
         <v>39.022804699352498</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="54">
         <v>0.885007221702376</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="55">
         <v>15.494000552222101</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="55">
         <v>101.222233247346</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="58">
         <v>70123</v>
       </c>
-      <c r="H14" s="49"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="49" t="s">
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="54">
         <v>39.715382531450402</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="54">
         <v>0.90017456195392098</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="55">
         <v>13.903342055622399</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="55">
         <v>102.081843298679</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="58">
         <v>70092</v>
       </c>
-      <c r="H15" s="49"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="55">
         <v>40.687119497123298</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="55">
         <v>0.91841067557299905</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="55">
         <v>11.9114204589227</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="55">
         <v>102.974139493322</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="58">
         <v>70599</v>
       </c>
-      <c r="H16" s="49"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="55">
         <v>41.293461216987701</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="55">
         <v>0.92854181615569698</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="55">
         <v>10.434213637374301</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="55">
         <v>103.10796006149999</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="58">
         <v>71256</v>
       </c>
-      <c r="H17" s="49"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <v>42.443506115731701</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="55">
         <v>0.94438147939463002</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="55">
         <v>8.3028107197023893</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="55">
         <v>103.17051159042801</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="58">
         <v>70332</v>
       </c>
-      <c r="H18" s="49"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="49" t="s">
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>44.285203000000003</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="47">
         <v>0.96258299999999997</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="47">
         <v>5.7918139999999996</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="56">
         <v>103.655798</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="58">
         <v>61580</v>
       </c>
-      <c r="H19" s="49"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="49" t="s">
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="59">
         <v>80.517193000000006</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="47">
         <v>0.99874499999999999</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="47">
         <v>0.41967900000000002</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="56">
         <v>107.707067</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="57">
         <v>61100</v>
       </c>
-      <c r="H20" s="49"/>
+      <c r="H20" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4447,6 +4839,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{D4A84A8B-21C7-4CCD-B2D7-F9B9B731626D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42EEA4F4-10CC-F141-97F4-838174CB0B2D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4479,6 +4885,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68C91588-B777-2F4E-9A94-857A8AC339A0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E20">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C4C4EA94-437D-8A48-B187-E5AE2BB1074B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F18 F21:F1048576">
     <cfRule type="dataBar" priority="9">
       <dataBar>
@@ -4489,20 +4923,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{FF4BAE23-1CFF-4A3F-9E90-0E93655D94A0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61E3C6AD-84DA-EA43-BAFC-247664BED712}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4521,44 +4941,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E20">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63C384"/>
+        <color rgb="FFD6007B"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4C4EA94-437D-8A48-B187-E5AE2BB1074B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68C91588-B777-2F4E-9A94-857A8AC339A0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42EEA4F4-10CC-F141-97F4-838174CB0B2D}</x14:id>
+          <x14:id>{61E3C6AD-84DA-EA43-BAFC-247664BED712}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4579,6 +4971,19 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C1:C19 C21:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42EEA4F4-10CC-F141-97F4-838174CB0B2D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D2EA08E6-B666-4A2D-95AC-869EB2F7FE26}">
@@ -4607,6 +5012,32 @@
           <xm:sqref>E1:E18 E21:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68C91588-B777-2F4E-9A94-857A8AC339A0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C4C4EA94-437D-8A48-B187-E5AE2BB1074B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E19:E20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF4BAE23-1CFF-4A3F-9E90-0E93655D94A0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4618,19 +5049,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F1:F18 F21:F1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61E3C6AD-84DA-EA43-BAFC-247664BED712}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7C3078AD-EFED-5040-9DF4-BFA5F345A722}">
@@ -4646,43 +5064,17 @@
           <xm:sqref>F19:F20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C4C4EA94-437D-8A48-B187-E5AE2BB1074B}">
+          <x14:cfRule type="dataBar" id="{61E3C6AD-84DA-EA43-BAFC-247664BED712}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
+              <x14:borderColor rgb="FFD6007B"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E19:E20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68C91588-B777-2F4E-9A94-857A8AC339A0}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42EEA4F4-10CC-F141-97F4-838174CB0B2D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>G1:G1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4698,304 +5090,304 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="44"/>
+    <col min="7" max="7" width="9" style="42"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5125,304 +5517,304 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="44"/>
+    <col min="7" max="7" width="9" style="42"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
